--- a/RF-Calculations-A7.xlsx
+++ b/RF-Calculations-A7.xlsx
@@ -264,6 +264,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>554850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7930056" y="157656"/>
+          <a:ext cx="2199718" cy="2158311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,7 +599,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="3">
-        <f>J4*G4</f>
+        <f t="shared" ref="L4:L11" si="0">J4*G4</f>
         <v>1</v>
       </c>
     </row>
@@ -712,11 +755,11 @@
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C11" si="0">I4</f>
+        <f t="shared" ref="C5:C11" si="1">I4</f>
         <v>32</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D11" si="1">K4</f>
+        <f t="shared" ref="D5:D11" si="2">K4</f>
         <v>3</v>
       </c>
       <c r="E5" s="3">
@@ -736,15 +779,15 @@
         <v>16</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J11" si="2">L4</f>
+        <f t="shared" ref="J5:J11" si="3">L4</f>
         <v>1</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K16" si="3">D5+(((E5-1)*H5)*J5)</f>
+        <f t="shared" ref="K5:K16" si="4">D5+(((E5-1)*H5)*J5)</f>
         <v>5</v>
       </c>
       <c r="L5" s="3">
-        <f>J5*G5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -756,11 +799,11 @@
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E6" s="3">
@@ -776,19 +819,19 @@
         <v>1</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" ref="I6:I16" si="4">ROUNDDOWN(((C6+2*F6-E6-((E6-1)*(H6-1))))/G6+1,0)</f>
+        <f t="shared" ref="I6:I16" si="5">ROUNDDOWN(((C6+2*F6-E6-((E6-1)*(H6-1))))/G6+1,0)</f>
         <v>16</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L6" s="3">
-        <f>J6*G6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -800,11 +843,11 @@
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E7" s="3">
@@ -820,19 +863,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="3">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="L7" s="3">
-        <f>J7*G7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -844,11 +887,11 @@
         <v>35</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E8" s="3">
@@ -864,19 +907,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L8" s="3">
-        <f>J8*G8</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -888,11 +931,11 @@
         <v>36</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E9" s="3">
@@ -908,19 +951,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L9" s="3">
-        <f>J9*G9</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -932,11 +975,11 @@
         <v>42</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E10" s="1">
@@ -952,19 +995,19 @@
         <v>1</v>
       </c>
       <c r="I10" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="L10" s="1">
-        <f>J10*G10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -976,11 +1019,11 @@
         <v>43</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E11" s="1">
@@ -996,19 +1039,19 @@
         <v>2</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="L11" s="1">
-        <f>J11*G11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1020,11 +1063,11 @@
         <v>44</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:C16" si="5">I11</f>
+        <f t="shared" ref="C12:C16" si="6">I11</f>
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D16" si="6">K11</f>
+        <f t="shared" ref="D12:D16" si="7">K11</f>
         <v>37</v>
       </c>
       <c r="E12" s="1">
@@ -1040,19 +1083,19 @@
         <v>1</v>
       </c>
       <c r="I12" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12:J16" si="8">L11</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" ref="J12:J16" si="7">L11</f>
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ref="L12:L16" si="8">J12*G12</f>
+        <f t="shared" ref="L12:L16" si="9">J12*G12</f>
         <v>4</v>
       </c>
     </row>
@@ -1064,11 +1107,11 @@
         <v>45</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="E13" s="1">
@@ -1084,19 +1127,19 @@
         <v>1</v>
       </c>
       <c r="I13" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -1108,11 +1151,11 @@
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="E14" s="1">
@@ -1128,19 +1171,19 @@
         <v>1</v>
       </c>
       <c r="I14" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -1152,11 +1195,11 @@
         <v>47</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="E15" s="1">
@@ -1172,19 +1215,19 @@
         <v>1</v>
       </c>
       <c r="I15" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -1196,11 +1239,11 @@
         <v>24</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="E16" s="1">
@@ -1216,19 +1259,19 @@
         <v>1</v>
       </c>
       <c r="I16" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
     </row>
@@ -1238,5 +1281,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>